--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -278,7 +278,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -560,6 +560,10 @@
   </si>
   <si>
     <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1117,7 +1121,7 @@
   </si>
   <si>
     <t>A human's name with the ability to identify parts and usage.
-識別のための人の名前情報、</t>
+識別のための人の名前情報</t>
   </si>
   <si>
     <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.
@@ -3129,13 +3133,13 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3186,7 +3190,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3204,7 +3208,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3215,7 +3219,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3241,10 +3245,10 @@
         <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>157</v>
@@ -3288,7 +3292,7 @@
         <v>133</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
@@ -3297,7 +3301,7 @@
         <v>134</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3315,7 +3319,7 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3326,7 +3330,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3352,16 +3356,16 @@
         <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
@@ -3386,13 +3390,13 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
@@ -3410,7 +3414,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3428,7 +3432,7 @@
         <v>128</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3439,7 +3443,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3462,19 +3466,19 @@
         <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3499,13 +3503,13 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3523,7 +3527,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3538,10 +3542,10 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3552,7 +3556,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3578,16 +3582,16 @@
         <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -3600,7 +3604,7 @@
         <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>76</v>
@@ -3636,7 +3640,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3651,13 +3655,13 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3665,7 +3669,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3688,16 +3692,16 @@
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3711,7 +3715,7 @@
         <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>76</v>
@@ -3747,7 +3751,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3762,13 +3766,13 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3776,7 +3780,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3799,13 +3803,13 @@
         <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3856,7 +3860,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3871,13 +3875,13 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3885,7 +3889,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3908,16 +3912,16 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3967,7 +3971,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3982,13 +3986,13 @@
         <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3999,7 +4003,7 @@
         <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>76</v>
@@ -4024,16 +4028,16 @@
         <v>161</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4134,13 +4138,13 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4191,7 +4195,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4209,7 +4213,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4220,7 +4224,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4246,10 +4250,10 @@
         <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>157</v>
@@ -4293,7 +4297,7 @@
         <v>133</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
@@ -4302,7 +4306,7 @@
         <v>134</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4320,7 +4324,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4331,7 +4335,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4357,16 +4361,16 @@
         <v>105</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4391,13 +4395,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4415,7 +4419,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4433,7 +4437,7 @@
         <v>128</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4444,7 +4448,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4467,19 +4471,19 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4504,13 +4508,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4528,7 +4532,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4543,10 +4547,10 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4557,7 +4561,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4583,29 +4587,29 @@
         <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -4641,7 +4645,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4656,13 +4660,13 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4670,7 +4674,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4693,16 +4697,16 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4716,7 +4720,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -4752,7 +4756,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4767,13 +4771,13 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4781,7 +4785,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4804,13 +4808,13 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4861,7 +4865,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4876,13 +4880,13 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4890,7 +4894,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4913,16 +4917,16 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4972,7 +4976,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4987,13 +4991,13 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5004,7 +5008,7 @@
         <v>160</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>76</v>
@@ -5029,16 +5033,16 @@
         <v>161</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -5139,13 +5143,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5196,7 +5200,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5214,7 +5218,7 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5225,7 +5229,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5251,10 +5255,10 @@
         <v>130</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>157</v>
@@ -5298,7 +5302,7 @@
         <v>133</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>76</v>
@@ -5307,7 +5311,7 @@
         <v>134</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5325,7 +5329,7 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5336,7 +5340,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5362,16 +5366,16 @@
         <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5396,13 +5400,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5420,7 +5424,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5438,7 +5442,7 @@
         <v>128</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5449,7 +5453,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5472,19 +5476,19 @@
         <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5509,13 +5513,13 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -5533,7 +5537,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5548,10 +5552,10 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5562,7 +5566,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5588,29 +5592,29 @@
         <v>99</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>76</v>
@@ -5646,7 +5650,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5661,13 +5665,13 @@
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5675,7 +5679,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5698,16 +5702,16 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5721,7 +5725,7 @@
         <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>76</v>
@@ -5757,7 +5761,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5772,13 +5776,13 @@
         <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5786,7 +5790,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5809,13 +5813,13 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5866,7 +5870,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -5881,13 +5885,13 @@
         <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5895,7 +5899,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5918,16 +5922,16 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5977,7 +5981,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -5992,13 +5996,13 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6006,7 +6010,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6029,70 +6033,70 @@
         <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6107,21 +6111,21 @@
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6144,19 +6148,19 @@
         <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6181,13 +6185,13 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6205,7 +6209,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6220,21 +6224,21 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6257,19 +6261,19 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6318,7 +6322,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6333,13 +6337,13 @@
         <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6347,7 +6351,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6370,19 +6374,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6431,7 +6435,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6449,7 +6453,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6460,7 +6464,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6483,19 +6487,19 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6544,7 +6548,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6553,19 +6557,19 @@
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6573,7 +6577,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6596,19 +6600,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6657,7 +6661,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6666,19 +6670,19 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6686,7 +6690,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6709,19 +6713,19 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -6770,7 +6774,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6785,13 +6789,13 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6799,7 +6803,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6822,19 +6826,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -6883,7 +6887,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6901,7 +6905,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6912,7 +6916,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6935,13 +6939,13 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6992,7 +6996,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7010,7 +7014,7 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7021,7 +7025,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7047,10 +7051,10 @@
         <v>130</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>157</v>
@@ -7103,7 +7107,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7121,7 +7125,7 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7132,11 +7136,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7158,10 +7162,10 @@
         <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>157</v>
@@ -7216,7 +7220,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7245,7 +7249,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7268,17 +7272,17 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7303,13 +7307,13 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7327,7 +7331,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7345,7 +7349,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7356,7 +7360,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7379,19 +7383,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7440,7 +7444,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7455,13 +7459,13 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7469,7 +7473,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7492,17 +7496,17 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7551,7 +7555,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7566,10 +7570,10 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7580,7 +7584,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7603,17 +7607,17 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7662,7 +7666,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7677,10 +7681,10 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7691,7 +7695,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7714,19 +7718,19 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -7775,7 +7779,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -7793,7 +7797,7 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
